--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="20" documentId="8_{8AF4F801-66CC-446A-BA15-E39FD0D3ECE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DF9F081-3733-4D18-A8BF-C29F22EAAD38}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{9A704C80-D462-487C-8CF0-05DF040B07CC}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" activeTab="2" xr2:uid="{9A704C80-D462-487C-8CF0-05DF040B07CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="6" r:id="rId1"/>
@@ -10645,8 +10645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DFCE5C-2C7F-46E7-B97A-B6BEEF71A94E}">
   <dimension ref="A1:A329"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="A328" sqref="A328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12301,6 +12301,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12308,8 +12309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8520D555-5DCC-4D2B-9321-7CC66891F535}">
   <dimension ref="A1:A628"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15459,6 +15460,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15466,8 +15468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF81E9F-7106-4CC9-9C27-64E029B3DC0F}">
   <dimension ref="A1:A461"/>
   <sheetViews>
-    <sheetView topLeftCell="A354" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17782,6 +17784,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="22" documentId="8_{8AF4F801-66CC-446A-BA15-E39FD0D3ECE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0997D0F5-B819-4786-A261-9B0BF39478CF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{9A704C80-D462-487C-8CF0-05DF040B07CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{9A704C80-D462-487C-8CF0-05DF040B07CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="6" r:id="rId1"/>
@@ -19985,7 +19985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C48883C-5072-48BF-BB33-322CBFFA859F}">
   <dimension ref="A1:A562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+    <sheetView topLeftCell="A367" workbookViewId="0">
       <selection activeCell="A396" sqref="A396"/>
     </sheetView>
   </sheetViews>
@@ -22814,8 +22814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EFE66F-66D4-4BBD-BF5C-62DA8612ACDB}">
   <dimension ref="A1:A489"/>
   <sheetViews>
-    <sheetView topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="A330" sqref="A330"/>
+    <sheetView tabSelected="1" topLeftCell="A320" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A341" sqref="A341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25270,6 +25270,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25277,8 +25278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F672797-4BB1-462D-821E-B04D5CE1555C}">
   <dimension ref="A1:A712"/>
   <sheetViews>
-    <sheetView topLeftCell="A677" workbookViewId="0">
-      <selection activeCell="A676" sqref="A676"/>
+    <sheetView topLeftCell="A412" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A424" sqref="A424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28848,5 +28849,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>